--- a/HaierMDM/20150318com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标/人力取数据加索引.xlsx
+++ b/HaierMDM/20150318com.neusoft.mdm.Employee.EmployeeAction.searchNewItemEmployee平均响应时间不达标/人力取数据加索引.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="查询" sheetId="1" r:id="rId1"/>
@@ -347,394 +347,394 @@
     <t>MVIEW_EMP_T0001(ORG_UNIT)</t>
   </si>
   <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_employee_info</t>
+  </si>
+  <si>
+    <t>IDX_T0000_EMPLOYEE_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_T0002_EMPLOYEE_NO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_T0002_FIRST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVIEW_EMP_T0002(FIRST_NAME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDX_t9231_EMPLOYEE_NO</t>
+  </si>
+  <si>
+    <t>hm_emp_t9231(EMPLOYEE_NO)</t>
+  </si>
+  <si>
+    <t>IDX_t9230_EMPLOYEE_NO</t>
+  </si>
+  <si>
+    <t>hm_emp_t9230(EMPLOYEE_NO)</t>
+  </si>
+  <si>
+    <t>IDX_hrsw_FIRST_NAME</t>
+  </si>
+  <si>
+    <t>hm_employee_info_hrsw(FIRST_NAME)</t>
+  </si>
+  <si>
+    <t>0005086496</t>
+  </si>
+  <si>
+    <t>0005593662</t>
+  </si>
+  <si>
+    <t>6000540503</t>
+  </si>
+  <si>
+    <t>6000540506</t>
+  </si>
+  <si>
+    <t>6000540510</t>
+  </si>
+  <si>
+    <t>0005012430</t>
+  </si>
+  <si>
+    <t>6000540513</t>
+  </si>
+  <si>
+    <t>6000540518</t>
+  </si>
+  <si>
+    <t>6000540522</t>
+  </si>
+  <si>
+    <t>6000000086</t>
+  </si>
+  <si>
+    <t>0005575985</t>
+  </si>
+  <si>
+    <t>6000000101</t>
+  </si>
+  <si>
+    <t>0005598976</t>
+  </si>
+  <si>
+    <t>6000000151</t>
+  </si>
+  <si>
+    <t>6000006672</t>
+  </si>
+  <si>
+    <t>0005971562</t>
+  </si>
+  <si>
+    <t>6000006832</t>
+  </si>
+  <si>
+    <t>6000006946</t>
+  </si>
+  <si>
+    <t>6000540537</t>
+  </si>
+  <si>
+    <t>6000540531</t>
+  </si>
+  <si>
+    <t>0000006150</t>
+  </si>
+  <si>
+    <t>6000540542</t>
+  </si>
+  <si>
+    <t>6000540524</t>
+  </si>
+  <si>
+    <t>0005575976</t>
+  </si>
+  <si>
+    <t>6000540534</t>
+  </si>
+  <si>
+    <t>0005953153</t>
+  </si>
+  <si>
+    <t>0501075750</t>
+  </si>
+  <si>
+    <t>6000000178</t>
+  </si>
+  <si>
+    <t>6000006582</t>
+  </si>
+  <si>
+    <t>0005593666</t>
+  </si>
+  <si>
+    <t>6000006698</t>
+  </si>
+  <si>
+    <t>6000006822</t>
+  </si>
+  <si>
+    <t>6000006984</t>
+  </si>
+  <si>
+    <t>6000007161</t>
+  </si>
+  <si>
+    <t>6000007168</t>
+  </si>
+  <si>
+    <t>6000540535</t>
+  </si>
+  <si>
+    <t>6000540528</t>
+  </si>
+  <si>
+    <t>6000540541</t>
+  </si>
+  <si>
+    <t>6000335599</t>
+  </si>
+  <si>
+    <t>6000540504</t>
+  </si>
+  <si>
+    <t>6000540523</t>
+  </si>
+  <si>
+    <t>6000000089</t>
+  </si>
+  <si>
+    <t>0501024350</t>
+  </si>
+  <si>
+    <t>6000006453</t>
+  </si>
+  <si>
+    <t>6000540533</t>
+  </si>
+  <si>
+    <t>6000540540</t>
+  </si>
+  <si>
+    <t>6000540530</t>
+  </si>
+  <si>
+    <t>6000540544</t>
+  </si>
+  <si>
+    <t>6000540502</t>
+  </si>
+  <si>
+    <t>0005575960</t>
+  </si>
+  <si>
+    <t>6000540508</t>
+  </si>
+  <si>
+    <t>0005593624</t>
+  </si>
+  <si>
+    <t>6000540515</t>
+  </si>
+  <si>
+    <t>6000540520</t>
+  </si>
+  <si>
+    <t>6000540521</t>
+  </si>
+  <si>
+    <t>6000000081</t>
+  </si>
+  <si>
+    <t>6000000087</t>
+  </si>
+  <si>
+    <t>6000000145</t>
+  </si>
+  <si>
+    <t>6000000150</t>
+  </si>
+  <si>
+    <t>6000006648</t>
+  </si>
+  <si>
+    <t>6000540539</t>
+  </si>
+  <si>
+    <t>6000540525</t>
+  </si>
+  <si>
+    <t>6000540529</t>
+  </si>
+  <si>
+    <t>6000540519</t>
+  </si>
+  <si>
+    <t>6000000082</t>
+  </si>
+  <si>
+    <t>6000000083</t>
+  </si>
+  <si>
+    <t>6000540538</t>
+  </si>
+  <si>
+    <t>6000000094</t>
+  </si>
+  <si>
+    <t>6000006830</t>
+  </si>
+  <si>
+    <t>6000006916</t>
+  </si>
+  <si>
+    <t>6000540505</t>
+  </si>
+  <si>
+    <t>0501075977</t>
+  </si>
+  <si>
+    <t>6000540514</t>
+  </si>
+  <si>
+    <t>6000006817</t>
+  </si>
+  <si>
+    <t>6000006708</t>
+  </si>
+  <si>
+    <t>6000000148</t>
+  </si>
+  <si>
+    <t>6000000149</t>
+  </si>
+  <si>
+    <t>6000000097</t>
+  </si>
+  <si>
+    <t>6000006704</t>
+  </si>
+  <si>
+    <t>6000006772</t>
+  </si>
+  <si>
+    <t>6000006850</t>
+  </si>
+  <si>
+    <t>6000006891</t>
+  </si>
+  <si>
+    <t>6000007007</t>
+  </si>
+  <si>
+    <t>6000540532</t>
+  </si>
+  <si>
+    <t>6000540527</t>
+  </si>
+  <si>
+    <t>0501134954</t>
+  </si>
+  <si>
+    <t>6000540501</t>
+  </si>
+  <si>
+    <t>6000540509</t>
+  </si>
+  <si>
+    <t>6000540512</t>
+  </si>
+  <si>
+    <t>6000540516</t>
+  </si>
+  <si>
+    <t>6000006530</t>
+  </si>
+  <si>
+    <t>6000000095</t>
+  </si>
+  <si>
+    <t>0500086492</t>
+  </si>
+  <si>
+    <t>6000000143</t>
+  </si>
+  <si>
+    <t>0005593697</t>
+  </si>
+  <si>
+    <t>6000000153</t>
+  </si>
+  <si>
+    <t>6000000156</t>
+  </si>
+  <si>
+    <t>6000006520</t>
+  </si>
+  <si>
+    <t>6000006907</t>
+  </si>
+  <si>
+    <t>6000540526</t>
+  </si>
+  <si>
+    <t>6000540543</t>
+  </si>
+  <si>
+    <t>0005592127</t>
+  </si>
+  <si>
+    <t>6000540536</t>
+  </si>
+  <si>
+    <t>6000540507</t>
+  </si>
+  <si>
+    <t>6000540511</t>
+  </si>
+  <si>
+    <t>0005593669</t>
+  </si>
+  <si>
+    <t>6000540517</t>
+  </si>
+  <si>
+    <t>6000000141</t>
+  </si>
+  <si>
+    <t>6000007125</t>
+  </si>
+  <si>
+    <t>6000007049</t>
+  </si>
+  <si>
+    <t>0501075741</t>
+  </si>
+  <si>
+    <t>6000007026</t>
+  </si>
+  <si>
+    <t>0005002051</t>
+  </si>
+  <si>
+    <t>0501076658</t>
+  </si>
+  <si>
     <t>MVIEW_EMP_T0000(EMPLOYEE_NO)</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_employee_info</t>
-  </si>
-  <si>
-    <t>IDX_T0000_EMPLOYEE_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX_T0002_EMPLOYEE_NO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX_T0002_FIRST_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MVIEW_EMP_T0002(FIRST_NAME)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IDX_t9231_EMPLOYEE_NO</t>
-  </si>
-  <si>
-    <t>hm_emp_t9231(EMPLOYEE_NO)</t>
-  </si>
-  <si>
-    <t>IDX_t9230_EMPLOYEE_NO</t>
-  </si>
-  <si>
-    <t>hm_emp_t9230(EMPLOYEE_NO)</t>
-  </si>
-  <si>
-    <t>IDX_hrsw_FIRST_NAME</t>
-  </si>
-  <si>
-    <t>hm_employee_info_hrsw(FIRST_NAME)</t>
-  </si>
-  <si>
-    <t>0005086496</t>
-  </si>
-  <si>
-    <t>0005593662</t>
-  </si>
-  <si>
-    <t>6000540503</t>
-  </si>
-  <si>
-    <t>6000540506</t>
-  </si>
-  <si>
-    <t>6000540510</t>
-  </si>
-  <si>
-    <t>0005012430</t>
-  </si>
-  <si>
-    <t>6000540513</t>
-  </si>
-  <si>
-    <t>6000540518</t>
-  </si>
-  <si>
-    <t>6000540522</t>
-  </si>
-  <si>
-    <t>6000000086</t>
-  </si>
-  <si>
-    <t>0005575985</t>
-  </si>
-  <si>
-    <t>6000000101</t>
-  </si>
-  <si>
-    <t>0005598976</t>
-  </si>
-  <si>
-    <t>6000000151</t>
-  </si>
-  <si>
-    <t>6000006672</t>
-  </si>
-  <si>
-    <t>0005971562</t>
-  </si>
-  <si>
-    <t>6000006832</t>
-  </si>
-  <si>
-    <t>6000006946</t>
-  </si>
-  <si>
-    <t>6000540537</t>
-  </si>
-  <si>
-    <t>6000540531</t>
-  </si>
-  <si>
-    <t>0000006150</t>
-  </si>
-  <si>
-    <t>6000540542</t>
-  </si>
-  <si>
-    <t>6000540524</t>
-  </si>
-  <si>
-    <t>0005575976</t>
-  </si>
-  <si>
-    <t>6000540534</t>
-  </si>
-  <si>
-    <t>0005953153</t>
-  </si>
-  <si>
-    <t>0501075750</t>
-  </si>
-  <si>
-    <t>6000000178</t>
-  </si>
-  <si>
-    <t>6000006582</t>
-  </si>
-  <si>
-    <t>0005593666</t>
-  </si>
-  <si>
-    <t>6000006698</t>
-  </si>
-  <si>
-    <t>6000006822</t>
-  </si>
-  <si>
-    <t>6000006984</t>
-  </si>
-  <si>
-    <t>6000007161</t>
-  </si>
-  <si>
-    <t>6000007168</t>
-  </si>
-  <si>
-    <t>6000540535</t>
-  </si>
-  <si>
-    <t>6000540528</t>
-  </si>
-  <si>
-    <t>6000540541</t>
-  </si>
-  <si>
-    <t>6000335599</t>
-  </si>
-  <si>
-    <t>6000540504</t>
-  </si>
-  <si>
-    <t>6000540523</t>
-  </si>
-  <si>
-    <t>6000000089</t>
-  </si>
-  <si>
-    <t>0501024350</t>
-  </si>
-  <si>
-    <t>6000006453</t>
-  </si>
-  <si>
-    <t>6000540533</t>
-  </si>
-  <si>
-    <t>6000540540</t>
-  </si>
-  <si>
-    <t>6000540530</t>
-  </si>
-  <si>
-    <t>6000540544</t>
-  </si>
-  <si>
-    <t>6000540502</t>
-  </si>
-  <si>
-    <t>0005575960</t>
-  </si>
-  <si>
-    <t>6000540508</t>
-  </si>
-  <si>
-    <t>0005593624</t>
-  </si>
-  <si>
-    <t>6000540515</t>
-  </si>
-  <si>
-    <t>6000540520</t>
-  </si>
-  <si>
-    <t>6000540521</t>
-  </si>
-  <si>
-    <t>6000000081</t>
-  </si>
-  <si>
-    <t>6000000087</t>
-  </si>
-  <si>
-    <t>6000000145</t>
-  </si>
-  <si>
-    <t>6000000150</t>
-  </si>
-  <si>
-    <t>6000006648</t>
-  </si>
-  <si>
-    <t>6000540539</t>
-  </si>
-  <si>
-    <t>6000540525</t>
-  </si>
-  <si>
-    <t>6000540529</t>
-  </si>
-  <si>
-    <t>6000540519</t>
-  </si>
-  <si>
-    <t>6000000082</t>
-  </si>
-  <si>
-    <t>6000000083</t>
-  </si>
-  <si>
-    <t>6000540538</t>
-  </si>
-  <si>
-    <t>6000000094</t>
-  </si>
-  <si>
-    <t>6000006830</t>
-  </si>
-  <si>
-    <t>6000006916</t>
-  </si>
-  <si>
-    <t>6000540505</t>
-  </si>
-  <si>
-    <t>0501075977</t>
-  </si>
-  <si>
-    <t>6000540514</t>
-  </si>
-  <si>
-    <t>6000006817</t>
-  </si>
-  <si>
-    <t>6000006708</t>
-  </si>
-  <si>
-    <t>6000000148</t>
-  </si>
-  <si>
-    <t>6000000149</t>
-  </si>
-  <si>
-    <t>6000000097</t>
-  </si>
-  <si>
-    <t>6000006704</t>
-  </si>
-  <si>
-    <t>6000006772</t>
-  </si>
-  <si>
-    <t>6000006850</t>
-  </si>
-  <si>
-    <t>6000006891</t>
-  </si>
-  <si>
-    <t>6000007007</t>
-  </si>
-  <si>
-    <t>6000540532</t>
-  </si>
-  <si>
-    <t>6000540527</t>
-  </si>
-  <si>
-    <t>0501134954</t>
-  </si>
-  <si>
-    <t>6000540501</t>
-  </si>
-  <si>
-    <t>6000540509</t>
-  </si>
-  <si>
-    <t>6000540512</t>
-  </si>
-  <si>
-    <t>6000540516</t>
-  </si>
-  <si>
-    <t>6000006530</t>
-  </si>
-  <si>
-    <t>6000000095</t>
-  </si>
-  <si>
-    <t>0500086492</t>
-  </si>
-  <si>
-    <t>6000000143</t>
-  </si>
-  <si>
-    <t>0005593697</t>
-  </si>
-  <si>
-    <t>6000000153</t>
-  </si>
-  <si>
-    <t>6000000156</t>
-  </si>
-  <si>
-    <t>6000006520</t>
-  </si>
-  <si>
-    <t>6000006907</t>
-  </si>
-  <si>
-    <t>6000540526</t>
-  </si>
-  <si>
-    <t>6000540543</t>
-  </si>
-  <si>
-    <t>0005592127</t>
-  </si>
-  <si>
-    <t>6000540536</t>
-  </si>
-  <si>
-    <t>6000540507</t>
-  </si>
-  <si>
-    <t>6000540511</t>
-  </si>
-  <si>
-    <t>0005593669</t>
-  </si>
-  <si>
-    <t>6000540517</t>
-  </si>
-  <si>
-    <t>6000000141</t>
-  </si>
-  <si>
-    <t>6000007125</t>
-  </si>
-  <si>
-    <t>6000007049</t>
-  </si>
-  <si>
-    <t>0501075741</t>
-  </si>
-  <si>
-    <t>6000007026</t>
-  </si>
-  <si>
-    <t>0005002051</t>
-  </si>
-  <si>
-    <t>0501076658</t>
   </si>
 </sst>
 </file>
@@ -1436,7 +1436,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C1" sqref="A1:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1776,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1787,7 +1787,7 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="35.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="24" style="1" customWidth="1"/>
+    <col min="5" max="5" width="62.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1799,16 +1799,16 @@
         <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1828,7 +1828,7 @@
         <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1848,7 +1848,7 @@
         <v>95</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1868,7 +1868,7 @@
         <v>97</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1888,7 +1888,7 @@
         <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1908,7 +1908,7 @@
         <v>67</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1928,7 +1928,7 @@
         <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1948,7 +1948,7 @@
         <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1968,7 +1968,7 @@
         <v>70</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1988,7 +1988,7 @@
         <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -2008,7 +2008,7 @@
         <v>72</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -2028,7 +2028,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -2048,7 +2048,7 @@
         <v>74</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -2068,7 +2068,7 @@
         <v>75</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -2088,7 +2088,7 @@
         <v>76</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -2108,7 +2108,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -2128,7 +2128,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -2139,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>91</v>
@@ -2148,7 +2148,7 @@
         <v>66</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -2159,16 +2159,56 @@
         <v>90</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>101</v>
+      <c r="D20" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -2179,56 +2219,16 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2249,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2263,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2275,7 +2275,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="8" t="str">
         <f>"'"&amp;A1&amp;"',"</f>
@@ -2284,7 +2284,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="8" t="str">
         <f t="shared" ref="B2:B65" si="0">"'"&amp;A2&amp;"',"</f>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +2329,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2356,7 +2356,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2374,7 +2374,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2428,7 +2428,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2464,7 +2464,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2473,7 +2473,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2491,7 +2491,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2581,7 +2581,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2617,7 +2617,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2626,7 +2626,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2662,7 +2662,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B45" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2680,7 +2680,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2689,7 +2689,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2752,7 +2752,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2761,7 +2761,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2779,7 +2779,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" s="8" t="str">
         <f t="shared" si="0"/>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B66" s="8" t="str">
         <f t="shared" ref="B66:B114" si="1">"'"&amp;A66&amp;"',"</f>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B67" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B68" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B69" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B70" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2905,7 +2905,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B71" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2914,7 +2914,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B72" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B73" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B74" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B75" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B76" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B77" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2968,7 +2968,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B78" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B79" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B80" s="8" t="str">
         <f t="shared" si="1"/>
@@ -2995,7 +2995,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B81" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B82" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B83" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B84" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B85" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3040,7 +3040,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B86" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3049,7 +3049,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B87" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3058,7 +3058,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B88" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B89" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B90" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B91" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B92" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B93" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3112,7 +3112,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B94" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B95" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B96" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3139,7 +3139,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B97" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B98" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3157,7 +3157,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B99" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B100" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3184,7 +3184,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3193,7 +3193,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B103" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3202,7 +3202,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B105" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3220,7 +3220,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B106" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B107" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B108" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B109" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B110" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3265,7 +3265,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B111" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B112" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B113" s="8" t="str">
         <f t="shared" si="1"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B114" s="8" t="str">
         <f t="shared" si="1"/>
